--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2224335.720447076</v>
+        <v>2299865.39011188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>31.63855909934253</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>269.2800203970311</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>74.09260911231095</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>92.39479380343643</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>271.0773712137454</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>54.89632529172503</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>15.67129869336565</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>316.1700570823263</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>122.7253106933298</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>54.6552011971115</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6509495310454</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>32.50395556408391</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>93.70991968893334</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>26.4107078574875</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>134.7426179953489</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.930370072261</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>37.63559668982773</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>109.5228313448036</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>140.5678108961687</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>51.49189946435654</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.548193263603036</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2524,19 +2526,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>12.93769876760058</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>127.8144229774397</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>176.8688121773855</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>97.24018360678566</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.99319854866569</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>283.8073485474568</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>89.27741646322694</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3481,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>153.7895767470268</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>23.02546971014511</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3718,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>46.2530778377178</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>69.78584166482513</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>135.1975152812753</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>53.28409262698163</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.511531185079</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>1395.511531185079</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2151.485713917717</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1778.019955656637</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C5" t="n">
-        <v>1689.203741822952</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1689.203741822952</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.415489224708</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>892.4295844351004</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>474.4657763332873</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>147.2710563692901</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307627</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3069090307627</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>69.77257646012774</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>290.5651556036578</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610024</v>
+        <v>69.77257646012774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>766.040429190364</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>766.040429190364</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>766.040429190364</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>380.2521765921197</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>373.3066758429163</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2518.155441252423</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2518.155441252423</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2518.155441252423</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2518.155441252423</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W8" t="n">
-        <v>2165.386785982309</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.921027721229</v>
+        <v>1542.779601230297</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600566</v>
+        <v>257.0633493392338</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600566</v>
+        <v>257.0633493392338</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477208</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653277</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7923845674174</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600566</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600566</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600566</v>
+        <v>438.7118141694735</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149474</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>326.2492756170072</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>893.5623804327207</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5230,19 +5232,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>1075.21084526296</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y13" t="n">
-        <v>1075.21084526296</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5273,55 +5275,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L15" t="n">
-        <v>816.7950850315608</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975555</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>589.0764827350422</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>438.9598433227064</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>438.9598433227064</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>292.069895824796</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>123.8945741446167</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>123.8945741446167</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1362.812616017146</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1362.812616017146</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1362.812616017146</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1108.128127811259</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W16" t="n">
-        <v>818.7109577742983</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,10 +5548,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>303.4081673726145</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C19" t="n">
-        <v>303.4081673726145</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D19" t="n">
-        <v>303.4081673726145</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>303.4081673726145</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706318</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="X19" t="n">
-        <v>303.4081673726145</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y19" t="n">
-        <v>303.4081673726145</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>2375.989236263797</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095317</v>
+        <v>2786.87950510831</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.474758001781</v>
+        <v>3033.644633014774</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281742</v>
+        <v>3802.012779407235</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945775</v>
+        <v>4131.875407071268</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164472</v>
+        <v>4568.699189774858</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>4773.721670557068</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.1357418247858</v>
+        <v>468.2819334614946</v>
       </c>
       <c r="C22" t="n">
-        <v>964.1357418247858</v>
+        <v>299.3457505335878</v>
       </c>
       <c r="D22" t="n">
-        <v>822.148054050878</v>
+        <v>149.229111121252</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688027</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179932</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471148</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974662</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247858</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="W22" t="n">
-        <v>964.1357418247858</v>
+        <v>1098.712528333282</v>
       </c>
       <c r="X22" t="n">
-        <v>964.1357418247858</v>
+        <v>870.7229774352645</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.1357418247858</v>
+        <v>649.9303982917344</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5986,31 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.7175987609742</v>
+        <v>554.4977260965287</v>
       </c>
       <c r="C25" t="n">
-        <v>506.7814158330673</v>
+        <v>385.5615431686218</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>385.5615431686218</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5615431686218</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>385.5615431686218</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>217.3862214884424</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1374.772784526192</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>1374.772784526192</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W25" t="n">
-        <v>1085.355614489231</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X25" t="n">
-        <v>857.3660635912139</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y25" t="n">
-        <v>857.3660635912139</v>
+        <v>736.1461909267684</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,22 +6250,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>3883.555759916434</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>4163.095825135131</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>4683.396446870878</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>376.9270045185178</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185178</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185178</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185178</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1369.810792802913</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U28" t="n">
-        <v>1369.810792802913</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V28" t="n">
-        <v>1115.126304597026</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W28" t="n">
-        <v>825.7091345600652</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X28" t="n">
-        <v>597.7195836620479</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y28" t="n">
-        <v>376.9270045185178</v>
+        <v>3575.849309876492</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6455,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483982</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916677</v>
+        <v>4282.30876419089</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916677</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916677</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.149147719352</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.02050893291</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V31" t="n">
-        <v>4148.02050893291</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W31" t="n">
-        <v>3858.603338895949</v>
+        <v>4282.30876419089</v>
       </c>
       <c r="X31" t="n">
-        <v>3858.603338895949</v>
+        <v>4282.30876419089</v>
       </c>
       <c r="Y31" t="n">
-        <v>3637.810759752419</v>
+        <v>4282.30876419089</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,28 +6721,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>485.404702608941</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>732.169830515405</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D34" t="n">
         <v>527.3450129705744</v>
@@ -6883,25 +6885,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.712528333286</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="V34" t="n">
-        <v>844.0280401273993</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="W34" t="n">
-        <v>554.6108700904388</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="X34" t="n">
-        <v>554.6108700904388</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="Y34" t="n">
-        <v>554.6108700904388</v>
+        <v>677.4616523829102</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6931,19 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7014,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>2227.840212610279</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1408.737062009188</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1184.951646798694</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>895.8230080122524</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>895.8230080122524</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W37" t="n">
-        <v>895.8230080122524</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="X37" t="n">
-        <v>667.8334571142351</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.040877970705</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>754.894602230607</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>585.9584193027001</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>585.9584193027001</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="W40" t="n">
-        <v>754.894602230607</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X40" t="n">
-        <v>754.894602230607</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y40" t="n">
-        <v>754.894602230607</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7412,10 +7414,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,7 +7426,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899127</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164472</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916675</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916675</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916675</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4744.160657054475</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843982</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.24660305754</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851653</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814692</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916675</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916675</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,7 +7684,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093321</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.446367141521</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142017</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949895</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L15" t="n">
-        <v>159.0121003135239</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>158.8724419039323</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670008</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670008</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>158.872441903933</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>73.53204524669994</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P36" t="n">
-        <v>104.6241510367947</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="N39" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776736</v>
+        <v>272.8719470256809</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.47535963978233</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>134.7428655345439</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>55.20390867860279</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>84.0085376067845</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>63.17819198825438</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>107.7854513331035</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>177.0001669917874</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>8.047662122043704</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.94206318221264</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>140.3656351039331</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>273.2996536309768</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271299</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>93.73313808094957</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.96316800455179</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>70.00663749184217</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.8387816332716</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.430003851120546</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>108.6433935203763</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>132.7334215895642</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>123.4084929364241</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>205.8845654861102</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338454</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>148.7988116872697</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>13.41795773693704</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>172.4255627620555</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="I2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="K2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327923</v>
       </c>
       <c r="L2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="N2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="O2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26430,13 +26432,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26445,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594793</v>
+        <v>-263730.5861594795</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.2930550654</v>
+        <v>326237.293055065</v>
       </c>
       <c r="D6" t="n">
-        <v>326237.293055065</v>
+        <v>326237.2930550647</v>
       </c>
       <c r="E6" t="n">
-        <v>-91881.28637969129</v>
+        <v>-91881.28637969139</v>
       </c>
       <c r="F6" t="n">
+        <v>433278.7500972048</v>
+      </c>
+      <c r="G6" t="n">
+        <v>433278.750097205</v>
+      </c>
+      <c r="H6" t="n">
         <v>433278.7500972049</v>
       </c>
-      <c r="G6" t="n">
-        <v>433278.7500972045</v>
-      </c>
-      <c r="H6" t="n">
-        <v>433278.7500972048</v>
-      </c>
       <c r="I6" t="n">
+        <v>433278.7500972047</v>
+      </c>
+      <c r="J6" t="n">
+        <v>256855.5309046116</v>
+      </c>
+      <c r="K6" t="n">
         <v>433278.7500972049</v>
-      </c>
-      <c r="J6" t="n">
-        <v>256855.530904612</v>
-      </c>
-      <c r="K6" t="n">
-        <v>433278.750097205</v>
       </c>
       <c r="L6" t="n">
         <v>433278.7500972047</v>
       </c>
       <c r="M6" t="n">
-        <v>298477.7348633675</v>
+        <v>298477.7348633673</v>
       </c>
       <c r="N6" t="n">
+        <v>433278.7500972049</v>
+      </c>
+      <c r="O6" t="n">
+        <v>433278.750097205</v>
+      </c>
+      <c r="P6" t="n">
         <v>433278.7500972046</v>
-      </c>
-      <c r="O6" t="n">
-        <v>433278.7500972048</v>
-      </c>
-      <c r="P6" t="n">
-        <v>433278.7500972048</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>323.0444825213405</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>58.47223807310377</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>144.4920442397838</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>59.53652244142482</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>56.67488725638952</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>93.71914772648732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>129.7497493295656</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>97.61411293846868</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>51.69040211564175</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>93.96027182110086</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.65885272800551</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28983,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-4.430470805042811e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440561</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L15" t="n">
-        <v>408.2698052695482</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>441.2361441450404</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299061</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>373.6013019241296</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346392</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P36" t="n">
-        <v>311.7175659683194</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>724.9245949685507</v>
       </c>
       <c r="N39" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091983</v>
+        <v>479.9653619572056</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>408.2698052695489</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2292848.375220168</v>
+        <v>2297787.638069201</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30.35032698453893</v>
+        <v>274.452171367011</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.7498680634315</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.99995778729098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>40.1282413554524</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>132.9342137328509</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>95.09774413911198</v>
+        <v>194.9453656527051</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>14.46389722690844</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>136.924128366992</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>247.4216449242176</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417038</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>82.65680676724666</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371575</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.6276470398224</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.3509529569262</v>
       </c>
       <c r="T37" t="n">
-        <v>101.2411891194852</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>255.4853389885913</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4309,22 +4309,22 @@
         <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.815289262514</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D2" t="n">
-        <v>913.549590655764</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.880026519315</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2656.615513891503</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519315</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519315</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>357.2197656505683</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>357.2197656505683</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>357.2197656505683</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2199653889007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.737983561872</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C8" t="n">
-        <v>946.7754666214607</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D8" t="n">
-        <v>946.7754666214607</v>
+        <v>1528.292345937432</v>
       </c>
       <c r="E8" t="n">
-        <v>560.9872140232164</v>
+        <v>1142.504093339188</v>
       </c>
       <c r="F8" t="n">
-        <v>150.0013092336089</v>
+        <v>731.5181885495801</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625994</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
         <v>713.5189870075369</v>
@@ -4962,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5056,37 +5056,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.785243411008</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555207</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X13" t="n">
-        <v>816.5074119443558</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7148328008257</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514086</v>
@@ -5299,13 +5299,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5439,10 +5439,10 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>994.3109288932102</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003442</v>
@@ -5503,22 +5503,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799365</v>
@@ -5715,10 +5715,10 @@
         <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5749,25 +5749,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6180,19 +6180,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610184</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003433</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405189</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909231</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227888</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169019</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799413</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>330.8254548799413</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726215</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6703,25 +6703,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383447</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324578</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>420.3226148324578</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>420.3226148324578</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.3226148324578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.4221461351941</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C37" t="n">
-        <v>563.4221461351941</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D37" t="n">
-        <v>413.3055067228584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1389.470863530704</v>
       </c>
       <c r="T37" t="n">
-        <v>1396.652443164483</v>
+        <v>1389.470863530704</v>
       </c>
       <c r="U37" t="n">
-        <v>1107.523804378042</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="V37" t="n">
-        <v>852.8393161721547</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="W37" t="n">
-        <v>563.4221461351941</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="X37" t="n">
-        <v>563.4221461351941</v>
+        <v>1100.342224744262</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.4221461351941</v>
+        <v>879.5496456007323</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7183,28 +7183,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1017.064856369034</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,19 +7587,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
         <v>869.3083006011506</v>
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7672,25 +7672,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9570010410683</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814589</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731812</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>88.78552702204891</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.10135341237336</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>64.30500338171925</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675616</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>135.9278465848481</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>103.0576765518797</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.2043331421149</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>89.5698570266771</v>
       </c>
       <c r="T37" t="n">
-        <v>120.306371938904</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>30.75201340998601</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>5.621317882561584</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842547.8393454835</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.839345483</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842547.8393454836</v>
+        <v>842547.8393454837</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842547.8393454837</v>
+        <v>842547.8393454836</v>
       </c>
     </row>
     <row r="14">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049991</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327917</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327922</v>
@@ -26355,7 +26355,7 @@
         <v>547440.6836327921</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925913</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.138088009611238e-09</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687062</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.60758687078</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263730.5861594796</v>
+        <v>-263730.5861594797</v>
       </c>
       <c r="C6" t="n">
-        <v>326237.293055065</v>
+        <v>326237.2930550652</v>
       </c>
       <c r="D6" t="n">
         <v>326237.2930550649</v>
       </c>
       <c r="E6" t="n">
-        <v>-92855.877639413</v>
+        <v>-91978.74550566393</v>
       </c>
       <c r="F6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="G6" t="n">
-        <v>432304.1588374827</v>
+        <v>433181.2909712322</v>
       </c>
       <c r="H6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712328</v>
       </c>
       <c r="I6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712325</v>
       </c>
       <c r="J6" t="n">
-        <v>255880.9396448903</v>
+        <v>256758.0717786414</v>
       </c>
       <c r="K6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="L6" t="n">
-        <v>432304.1588374829</v>
+        <v>433181.2909712317</v>
       </c>
       <c r="M6" t="n">
-        <v>297503.1436036461</v>
+        <v>298380.2757373955</v>
       </c>
       <c r="N6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="O6" t="n">
-        <v>432304.1588374831</v>
+        <v>433181.2909712326</v>
       </c>
       <c r="P6" t="n">
-        <v>432304.158837483</v>
+        <v>433181.2909712324</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,25 +26795,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-3.751897654485911e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.287272754554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>351.5800430877229</v>
+        <v>107.4781987052507</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.83478528866331</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>338.2729339837166</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.35016121935931</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>23.23667510894424</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>318.686425881683</v>
+        <v>218.8388043680899</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>152.7829238717194</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28313,7 +28313,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-2.407695697220601e-11</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330526</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
